--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11740.92513293802</v>
+        <v>2336444.101454665</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11740.92513293802</v>
+        <v>2336444.101454665</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38853.06407549211</v>
+        <v>2353606.214037362</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38853.06407549211</v>
+        <v>2353606.214037362</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418937659.178866</v>
+        <v>56251366.10466785</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13100.99795833929</v>
+        <v>1323548.308390809</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25276.86771269959</v>
+        <v>2488472.070698459</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37452.73746705985</v>
+        <v>3653395.83300611</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50933.24003170247</v>
+        <v>4747303.654888886</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64400.80405260962</v>
+        <v>5842237.199216396</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77868.36807351677</v>
+        <v>6937170.743543901</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91382.45734694917</v>
+        <v>8034074.186861304</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>104886.6476304827</v>
+        <v>9129007.731188808</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>118130.2079729031</v>
+        <v>10211332.54701097</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>131420.8281706487</v>
+        <v>11305986.37782294</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>144711.0524087983</v>
+        <v>12400561.41267532</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>158001.2239986856</v>
+        <v>13495136.44752771</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>171291.3955885729</v>
+        <v>14589711.4823801</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>184698.2252865949</v>
+        <v>15671893.39164189</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>198071.901431385</v>
+        <v>16750142.47140308</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>216</v>
@@ -27052,13 +27052,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>215</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>25</v>
